--- a/documentation/accounting_hours.xlsx
+++ b/documentation/accounting_hours.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgan.e.marino/Documents/GitHub/EECS448_Project3/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7865409A-95CA-A34E-B9B2-4E873978E520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA609B6B-61F2-4746-A730-D5DDB678261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1920" windowWidth="27640" windowHeight="15780" xr2:uid="{FDB07140-0247-9243-A3BD-1187E3567375}"/>
+    <workbookView xWindow="1160" yWindow="980" windowWidth="27640" windowHeight="15780" xr2:uid="{FDB07140-0247-9243-A3BD-1187E3567375}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -165,16 +165,16 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,100 +492,100 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="19" width="4.83203125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="19" width="4.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
       <c r="T1" s="1"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>6</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="3">
         <v>7</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <v>8</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <v>9</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="3">
         <v>10</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="3">
         <v>11</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="3">
         <v>12</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="3">
         <v>13</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="3">
         <v>14</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="3">
         <v>15</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="3">
         <v>16</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="3">
         <v>17</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="3">
         <v>18</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -593,25 +593,25 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4">
         <f>SUM(B3:S3)</f>
         <v>0</v>
       </c>
@@ -620,25 +620,25 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4">
         <f>SUM(B4:S4)</f>
         <v>0</v>
       </c>
@@ -647,52 +647,54 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6">
+      <c r="B5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4">
         <f>SUM(B5:S5)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4">
         <f>SUM(B6:S6)</f>
         <v>0</v>
       </c>
@@ -701,37 +703,37 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="6"/>
+      <c r="R7" s="4"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="6">
+      <c r="T7" s="4">
         <f>SUM(B7:S7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="T8" s="6">
+      <c r="T8" s="4">
         <f>SUM(T3:T7)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/documentation/accounting_hours.xlsx
+++ b/documentation/accounting_hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgan.e.marino/Documents/GitHub/EECS448_Project3/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA609B6B-61F2-4746-A730-D5DDB678261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C3A64C-99F8-AF45-8A78-CFC460E01FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="980" windowWidth="27640" windowHeight="15780" xr2:uid="{FDB07140-0247-9243-A3BD-1187E3567375}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -650,7 +650,9 @@
       <c r="B5" s="4">
         <v>0.5</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -669,7 +671,7 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4">
         <f>SUM(B5:S5)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -729,7 +731,7 @@
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="T8" s="4">
         <f>SUM(T3:T7)</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">

--- a/documentation/accounting_hours.xlsx
+++ b/documentation/accounting_hours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamabernathy/Documents/Code/EECS_448/EECS448_Project3/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgan.e.marino/Documents/GitHub/EECS448_Project3/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495262F4-5E6C-5B4A-BF94-A66BDF0F7977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FE0F08-DD8C-4D40-A40A-3190375BAC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -603,14 +603,18 @@
         <v>0.5</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="O5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
@@ -711,7 +715,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="4">
         <f>SUM(T3:T7)</f>
-        <v>19.25</v>
+        <v>20.75</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>

--- a/documentation/accounting_hours.xlsx
+++ b/documentation/accounting_hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgan.e.marino/Documents/GitHub/EECS448_Project3/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FE0F08-DD8C-4D40-A40A-3190375BAC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A289562-2788-A94C-932B-3B5B9444D228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>November</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Estimate of person-hours: 40</t>
+  </si>
+  <si>
+    <t>Reasoning: The reason we picked 40 hours is because it's approximately where we've been landing with our hours since Project 1. In Project 1 and 2, we predicted 40 hours, but in Project 3, we predicted 30 hours and was way below what it actually was. We are hoping 40 hours is enough time to finish our project, clean it, and create a video, but we won't overdo or strain ourselves and our busy schedules.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -755,7 +758,9 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>

--- a/documentation/accounting_hours.xlsx
+++ b/documentation/accounting_hours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgan.e.marino/Documents/GitHub/EECS448_Project3/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyashakamuri/Desktop/EECS448_Project3/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A289562-2788-A94C-932B-3B5B9444D228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA029E4-42B3-4F48-91BF-B69BD4103349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -637,20 +637,30 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>0.5</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
       <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0.5</v>
+      </c>
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
@@ -718,7 +728,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="4">
         <f>SUM(T3:T7)</f>
-        <v>20.75</v>
+        <v>26.75</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>

--- a/documentation/accounting_hours.xlsx
+++ b/documentation/accounting_hours.xlsx
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -138,6 +138,9 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -521,10 +524,10 @@
       <c r="O4" s="6">
         <v>0.75</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="6">
         <v>1.0</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="6">
         <v>1.5</v>
       </c>
       <c r="R4" s="6"/>
@@ -644,23 +647,31 @@
       <c r="E7" s="6">
         <v>2.0</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="8">
+        <v>2.0</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2.0</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="1"/>
+      <c r="P7" s="9">
+        <v>1.0</v>
+      </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="6"/>
       <c r="S7" s="1"/>
       <c r="T7" s="6">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -691,7 +702,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="6">
         <f>SUM(T3:T7)</f>
-        <v>29.25</v>
+        <v>36.75</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>

--- a/documentation/accounting_hours.xlsx
+++ b/documentation/accounting_hours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgan.e.marino/Documents/GitHub/EECS448_Project3/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamabernathy/Documents/Code/EECS_448/EECS448_Project3/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E72EB1-DF52-844D-831A-110BF68663C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A951C-418E-8243-BA17-9A7B40302555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -525,14 +525,16 @@
       <c r="P3" s="4">
         <v>5</v>
       </c>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="4">
+        <v>2</v>
+      </c>
       <c r="R3" s="4"/>
       <c r="S3" s="4">
         <v>1</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" ref="T3:T7" si="0">SUM(B3:S3)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -753,7 +755,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="4">
         <f>SUM(T3:T7)</f>
-        <v>42.25</v>
+        <v>44.25</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
